--- a/pred_ohlcv/54_21/2020-01-19 AOA ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-19 AOA ohlcv.xlsx
@@ -1354,7 +1354,7 @@
         <v>-7457670.837278424</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-8613653.837278424</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-9976869.183078423</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-11235769.55017842</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-18713334.0810097</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-19506337.1187097</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-19516153.9451097</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-19679715.9005097</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-20175640.8535097</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-14238717.7085097</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-14430057.8874097</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-15063289.18148441</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-15253289.18148441</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-16721912.66568441</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-16873355.41578441</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-16873367.66338441</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-15987665.17338441</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-15935151.34061403</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-16644725.34061403</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-16644462.34061403</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-17754591.17901403</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-17580005.78341403</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-22769644.74272706</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-19 AOA ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-19 AOA ohlcv.xlsx
@@ -1354,7 +1354,7 @@
         <v>-7457670.837278424</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-8613653.837278424</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-9976869.183078423</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-11235769.55017842</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-18284993.7400097</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-18125478.1899097</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-18125478.1899097</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-18677614.1017097</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-18713334.0810097</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-19056685.0748097</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-19511420.7094097</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-19511420.7094097</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-19506337.1187097</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-19516153.9451097</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-19679715.9005097</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-19679715.9005097</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-20175640.8535097</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-16925848.7638097</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-14277310.4193097</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-14238717.7085097</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-14238717.7085097</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-14243634.2580097</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-14243634.2580097</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-11759852.1302097</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-11777469.8936097</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-11776009.4058097</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-11490302.17848441</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-11198158.93218441</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-10374758.50568441</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-15063289.18148441</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-15063289.18148441</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-16873355.41578441</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-16872828.41578441</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-16873367.66338441</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-15987665.17338441</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-18860755.15601403</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-15935151.34061403</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-16644725.34061403</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-16644462.34061403</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-17754591.17901403</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-22769644.74272706</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
